--- a/Data/Input/WorkDayInput.xlsx
+++ b/Data/Input/WorkDayInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55649C\Documents\UiPath\P004_SP002_090_NewHireCommunication_OfferLetterCreation_Performer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22D920-A074-43BB-9A78-EBEA09720415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C9B49-16B5-42E6-BA8D-46E5641B5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Sl No#</t>
   </si>
@@ -50,9 +50,6 @@
     <t>JR22755</t>
   </si>
   <si>
-    <t>JR30744</t>
-  </si>
-  <si>
     <t>JR12356</t>
   </si>
   <si>
@@ -90,19 +87,75 @@
   </si>
   <si>
     <t>Zip</t>
+  </si>
+  <si>
+    <t>087 Lake Floyd Circle</t>
+  </si>
+  <si>
+    <t>Annapolis Junction</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>185 Wilkinson Court</t>
+  </si>
+  <si>
+    <t>Bonita Springs</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>219 Ryder Avenue</t>
+  </si>
+  <si>
+    <t>Bothell</t>
+  </si>
+  <si>
+    <t>Washinton</t>
+  </si>
+  <si>
+    <t>860 Davis Avenue</t>
+  </si>
+  <si>
+    <t>West Chester</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>813 Collins Street</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>2267 Lake Road</t>
+  </si>
+  <si>
+    <t>Borentown</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +491,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,25 +510,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -488,10 +542,22 @@
         <v>45281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>20701</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -502,10 +568,22 @@
         <v>44551</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>123456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>33293</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -513,14 +591,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>123456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>98011</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -528,13 +618,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>44916</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>19382</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -542,13 +644,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>45098</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>33634</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -556,13 +670,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>45037</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>85050</v>
       </c>
     </row>
   </sheetData>
